--- a/table.xlsx
+++ b/table.xlsx
@@ -102,7 +102,7 @@
     <t>content</t>
   </si>
   <si>
-    <t>signature_approvals</t>
+    <t>signatureApprovals</t>
   </si>
   <si>
     <t>size</t>
